--- a/medicine/Pharmacie/Abionic/Abionic.xlsx
+++ b/medicine/Pharmacie/Abionic/Abionic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Abionic SA est une entreprise spécialisée dans le développement des tests de diagnostic in vitro ultra rapides, située à Lausanne en Suisse[1].  
+Abionic SA est une entreprise spécialisée dans le développement des tests de diagnostic in vitro ultra rapides, située à Lausanne en Suisse.  
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Abionic a développé l’abioSCOPE, une plateforme de diagnostic point-of-care permettant de mesurer plusieurs paramètres à partir d’une goutte de fluide biologique[2] (par exemple sang ou salive) à l'aide de sa technologie nanofluidique brevetée. L’abioSCOPE est implémenté dans les unités de soins intensifs et aux urgences afin de permettre l’identification précoce du sepsis (septicémie) grâce à un biomarqueur propriétaire, la Pancreatic Stone Protein (PSP).  
-Sécrétée principalement par le pancréas et l’estomac, la PSP augmente rapidement dans le sang en cas de développement de sepsis et ce jusqu’à 72 h plus tôt qu’avec les méthodes actuelles[3], servant de signal d’alarme pour les médecins permettant de les guider dans la décision de commencer ou non un traitement antibiotique. Outre la valeur diagnostique de la PSP pour le sepsis, sa disponibilité au chevet du patient et la rapidité avec laquelle le résultat est disponible (5 minutes) permettent une opportunité supplémentaire de surveiller les patients présentant un risque de développer un sepsis.
-L’abioSCOPE est également utilisé dans les soins primaires pour le dépistage des carences en fer, des allergies respiratoires[4] les plus courantes et plus récemment pour le dépistage du COVID-19 avec un test antigénique salivaire et nasopharyngé.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abionic a développé l’abioSCOPE, une plateforme de diagnostic point-of-care permettant de mesurer plusieurs paramètres à partir d’une goutte de fluide biologique (par exemple sang ou salive) à l'aide de sa technologie nanofluidique brevetée. L’abioSCOPE est implémenté dans les unités de soins intensifs et aux urgences afin de permettre l’identification précoce du sepsis (septicémie) grâce à un biomarqueur propriétaire, la Pancreatic Stone Protein (PSP).  
+Sécrétée principalement par le pancréas et l’estomac, la PSP augmente rapidement dans le sang en cas de développement de sepsis et ce jusqu’à 72 h plus tôt qu’avec les méthodes actuelles, servant de signal d’alarme pour les médecins permettant de les guider dans la décision de commencer ou non un traitement antibiotique. Outre la valeur diagnostique de la PSP pour le sepsis, sa disponibilité au chevet du patient et la rapidité avec laquelle le résultat est disponible (5 minutes) permettent une opportunité supplémentaire de surveiller les patients présentant un risque de développer un sepsis.
+L’abioSCOPE est également utilisé dans les soins primaires pour le dépistage des carences en fer, des allergies respiratoires les plus courantes et plus récemment pour le dépistage du COVID-19 avec un test antigénique salivaire et nasopharyngé.
 </t>
         </is>
       </c>
@@ -545,22 +559,59 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Abionic a été fondée en 2010 au sein de l'École polytechnique fédérale de Lausanne (EPFL), par le Dr Nicolas Durand et le Dr Iwan Märki[5].
-Faits marquants au cours du développement de la société
-2012 :  
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abionic a été fondée en 2010 au sein de l'École polytechnique fédérale de Lausanne (EPFL), par le Dr Nicolas Durand et le Dr Iwan Märki.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Abionic</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abionic</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Faits marquants au cours du développement de la société</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2012 :  
 1re démonstration de la technologie
 Abionic obtient le prix de « Swiss Excellence Product Award »
-2015 : 1er panel du test allergies développé[6].
+2015 : 1er panel du test allergies développé.
 2016 : 
 Inauguration des nouveaux locaux au Biopôle de Lausanne
-Signature d’un 1er contrat de distribution sur le marché suisse[7]
+Signature d’un 1er contrat de distribution sur le marché suisse
 2017 :
-Obtention du marquage CE pour le test IVD CAPSULE PSP pour le sepsis[8],[9]
-Obtention du marquage CE pour l‘IVD CAPSULE Ferritin[8],[9]
-Premier test de panel d’allergies approuvé par la FDA[10]
-Partenariat avec le Global Sepsis Alliance (GSA), et sponsor de la journée mondiale de la lutte contre le sepsis (World Sepsis Day)[11]
+Obtention du marquage CE pour le test IVD CAPSULE PSP pour le sepsis,
+Obtention du marquage CE pour l‘IVD CAPSULE Ferritin,
+Premier test de panel d’allergies approuvé par la FDA
+Partenariat avec le Global Sepsis Alliance (GSA), et sponsor de la journée mondiale de la lutte contre le sepsis (World Sepsis Day)
 2020 : Commercialisation de l’abioSCOPE 2.0
 2022 : 
 Augmentation de la capacité de production de la société à 2 millions de tests par an
@@ -568,39 +619,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Abionic</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Abionic</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Produits</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La solution d’Abionic est composée de l’abioSCOPE, un dispositif de diagnostic in vitro permettant la lecture des consommables, les IVD CAPSULE, qui sont des tests à usage unique et spécifiques à chaque analyte. 
-Principe du test :
-Le principe du test repose sur le mélange de l’échantillon du patient (sang total, capillaire, sérum, salive ou échantillon nasopharyngé) à un réactif contenant des marqueurs fluorescents[2]. La solution est alors déposée sur la capsule et entre par capillarité dans les chambres nanométriques. Le ratio volume-surface force alors l’interaction immédiate des molécules limitant leur trajet et réduisant le temps d’incubation à quelques minutes. La concentration de la molécule d’intérêt est alors proportionnelle à la mesure de l’intensité du signal fluorescent par l’abioSCOPE.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -622,10 +640,47 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Produits</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La solution d’Abionic est composée de l’abioSCOPE, un dispositif de diagnostic in vitro permettant la lecture des consommables, les IVD CAPSULE, qui sont des tests à usage unique et spécifiques à chaque analyte. 
+Principe du test :
+Le principe du test repose sur le mélange de l’échantillon du patient (sang total, capillaire, sérum, salive ou échantillon nasopharyngé) à un réactif contenant des marqueurs fluorescents. La solution est alors déposée sur la capsule et entre par capillarité dans les chambres nanométriques. Le ratio volume-surface force alors l’interaction immédiate des molécules limitant leur trajet et réduisant le temps d’incubation à quelques minutes. La concentration de la molécule d’intérêt est alors proportionnelle à la mesure de l’intensité du signal fluorescent par l’abioSCOPE.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Abionic</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abionic</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
